--- a/Slides/data/Area-Fixa.xlsx
+++ b/Slides/data/Area-Fixa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FL03039-Inventario-Florestal\Slides\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37cd5d8700b5386d/GitHub/FL03039-Inventario-Florestal/Slides/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBBD5A3-2764-46B3-AD00-26FD9C9597D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{AFBBD5A3-2764-46B3-AD00-26FD9C9597D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FB34D65-77AF-4DD2-ADE5-45FBE517991F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1050,7 +1050,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="127" zoomScaleNormal="127" zoomScalePageLayoutView="94" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>

--- a/Slides/data/Area-Fixa.xlsx
+++ b/Slides/data/Area-Fixa.xlsx
@@ -1050,7 +1050,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="127" zoomScaleNormal="127" zoomScalePageLayoutView="94" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
